--- a/dados/lojadosomeacessorios.xlsx
+++ b/dados/lojadosomeacessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,206 +483,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lojadosomeacessorios</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>77.31999999999999</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:296847653#searchVariation=MLB27685629&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ea06cd9-b2b3-4e97-ab3d-28d2c7f35a69</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:296847653#searchVariation=MLB27685629&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120.25</v>
+          <t>lojadosomeacessorios</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:296847653#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ea06cd9-b2b3-4e97-ab3d-28d2c7f35a69</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:296847653#searchVariation=MLB27687422&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>77.31999999999999</v>
+          <t>lojadosomeacessorios</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>121.47</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:296847653#searchVariation=MLB27687422&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ea06cd9-b2b3-4e97-ab3d-28d2c7f35a69</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:296847653#searchVariation=MLB28557249&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lojadosomeacessorios</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Amplificador 380w Jfa Ap380 Rms 4 Canais Crossover Lançament</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>347.7</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3711906749-amplificador-380w-jfa-ap380-rms-4-canais-crossover-lancament-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deff44b9b-75d9-4188-9c1d-050cc029ced0</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3711906749-amplificador-380w-jfa-ap380-rms-4-canais-crossover-lancament-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7769ff-b3be-47c3-9256-b9ecced16e39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Som K1200 Metros + Central Jfa Top</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>93</v>
+          <t>lojadosomeacessorios</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longa Distância 1200 Metros</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2625326736-controle-longa-distancia-som-k1200-metros-central-jfa-top-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab273aed-6992-4b64-928a-8c02e9702c38</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Controle Remoto Jfa Redline Wr Longa Distância 1200 Metros</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>110.78</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640116873-controle-remoto-jfa-redline-wr-longa-distncia-1200-metros-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab273aed-6992-4b64-928a-8c02e9702c38</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640116873-controle-remoto-jfa-redline-wr-longa-distncia-1200-metros-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D67704492-d5e4-4384-b133-1e38fcf0a70e</t>
         </is>
       </c>
     </row>

--- a/dados/lojadosomeacessorios.xlsx
+++ b/dados/lojadosomeacessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78.90000000000001</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:296847653#searchVariation=MLB27685629&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:296847653#searchVariation=MLB27685629&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5e0b862-90f4-4903-ad7d-f11e0de545d1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78.90000000000001</v>
+        <v>120.25</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:296847653#searchVariation=MLB27687422&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:296847653#searchVariation=MLB28557249&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5e0b862-90f4-4903-ad7d-f11e0de545d1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>121.47</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,98 +606,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:296847653#searchVariation=MLB28557249&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=e9351b0a-97e9-41fd-9f30-557e972e8462</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>lojadosomeacessorios</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Amplificador 380w Jfa Ap380 Rms 4 Canais Crossover Lançament</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>351.4</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3711906749-amplificador-380w-jfa-ap380-rms-4-canais-crossover-lancament-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7769ff-b3be-47c3-9256-b9ecced16e39</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>lojadosomeacessorios</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Controle Remoto Jfa Redline Wr Longa Distância 1200 Metros</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640116873-controle-remoto-jfa-redline-wr-longa-distncia-1200-metros-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D67704492-d5e4-4384-b133-1e38fcf0a70e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:296847653#searchVariation=MLB27687422&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5e0b862-90f4-4903-ad7d-f11e0de545d1</t>
         </is>
       </c>
     </row>
